--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="70">
   <si>
     <t>Profile</t>
   </si>
@@ -143,6 +143,30 @@
     <t>null#11510</t>
   </si>
   <si>
+    <t>tumor-measurement</t>
+  </si>
+  <si>
+    <t>Profile Tumor Measurment</t>
+  </si>
+  <si>
+    <t>LOINC#21889-1</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
+  </si>
+  <si>
+    <t>LOINC#33728-7</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>LOINC#33729-5</t>
+  </si>
+  <si>
     <t>uicc-tnm</t>
   </si>
   <si>
@@ -182,9 +206,6 @@
     <t>LOINC#21893-3</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>LOINC#21894-1</t>
   </si>
   <si>
@@ -201,9 +222,6 @@
   </si>
   <si>
     <t>Profile Vital Signs Base</t>
-  </si>
-  <si>
-    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
   </si>
 </sst>
 </file>
@@ -337,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -640,13 +658,13 @@
         <v>45</v>
       </c>
       <c r="F9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="G9" t="s" s="2">
-        <v>27</v>
-      </c>
       <c r="H9" t="s" s="2">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>19</v>
@@ -672,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
@@ -681,7 +699,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>19</v>
@@ -707,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
@@ -716,7 +734,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>19</v>
@@ -742,16 +760,16 @@
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s" s="2">
         <v>49</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>28</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>19</v>
@@ -786,7 +804,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>19</v>
@@ -800,10 +818,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>14</v>
@@ -812,13 +830,13 @@
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>28</v>
@@ -838,7 +856,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>14</v>
@@ -847,7 +865,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
@@ -873,7 +891,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>14</v>
@@ -882,7 +900,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -908,7 +926,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>14</v>
@@ -917,7 +935,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
@@ -943,7 +961,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>14</v>
@@ -952,7 +970,7 @@
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>14</v>
@@ -978,7 +996,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>14</v>
@@ -987,7 +1005,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
@@ -1013,7 +1031,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>14</v>
@@ -1022,7 +1040,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>14</v>
@@ -1048,7 +1066,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>14</v>
@@ -1057,7 +1075,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>14</v>
@@ -1066,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>19</v>
@@ -1083,7 +1101,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>14</v>
@@ -1092,7 +1110,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>14</v>
@@ -1101,7 +1119,7 @@
         <v>14</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>19</v>
@@ -1115,10 +1133,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>14</v>
@@ -1130,10 +1148,10 @@
         <v>60</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>28</v>
@@ -1150,36 +1168,211 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="F24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="F25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="C29" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D24" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s" s="2">
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G29" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>19</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K24" t="s" s="2">
+      <c r="H29" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -343,10 +343,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="72">
   <si>
     <t>Profile</t>
   </si>
@@ -158,13 +158,19 @@
     <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period</t>
   </si>
   <si>
-    <t>LOINC#33728-7</t>
+    <t>LOINC#33728-7, SNOMED CT#371479009</t>
   </si>
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>LOINC#33729-5</t>
+    <t>LOINC#21889-1, SNOMED CT#372299002</t>
+  </si>
+  <si>
+    <t>LOINC#33729-5, SNOMED CT#2372300005</t>
+  </si>
+  <si>
+    <t>LOINC#33729-5, SNOMED CT#258261001</t>
   </si>
   <si>
     <t>uicc-tnm</t>
@@ -760,7 +766,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>14</v>
@@ -795,7 +801,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>14</v>
@@ -818,10 +824,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>14</v>
@@ -830,10 +836,10 @@
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>27</v>
@@ -856,7 +862,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>14</v>
@@ -865,7 +871,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
@@ -891,7 +897,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>14</v>
@@ -900,7 +906,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -926,7 +932,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>14</v>
@@ -935,7 +941,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
@@ -961,7 +967,7 @@
         <v>14</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>14</v>
@@ -996,7 +1002,7 @@
         <v>14</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>14</v>
@@ -1005,7 +1011,7 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
@@ -1031,7 +1037,7 @@
         <v>14</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>14</v>
@@ -1066,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>14</v>
@@ -1101,7 +1107,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>14</v>
@@ -1110,7 +1116,7 @@
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>14</v>
@@ -1136,7 +1142,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>14</v>
@@ -1145,7 +1151,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>14</v>
@@ -1171,7 +1177,7 @@
         <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>14</v>
@@ -1180,7 +1186,7 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>14</v>
@@ -1206,7 +1212,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>14</v>
@@ -1215,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
@@ -1241,7 +1247,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>14</v>
@@ -1250,7 +1256,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>14</v>
@@ -1276,7 +1282,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>14</v>
@@ -1285,7 +1291,7 @@
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
@@ -1308,10 +1314,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>14</v>
@@ -1320,7 +1326,7 @@
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>16</v>
@@ -1343,10 +1349,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>13</v>
